--- a/data_base/DS_TRUNGTUYEN_NGANH.xlsx
+++ b/data_base/DS_TRUNGTUYEN_NGANH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumik\Downloads\ke-khai-gio-day-app-master\data_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A561B-7DE3-407D-A021-E475D041EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1663B5-2098-435B-A895-59290389D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC0DE998-68CE-4C32-89E0-B80CB8F15184}"/>
   </bookViews>
@@ -450,8 +450,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00;\-0.00;;@"/>
+    <numFmt numFmtId="167" formatCode="0.0;\-0.0;;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -745,87 +747,87 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,7 +1205,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Z9" sqref="Z9:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1229,7 @@
     <col min="18" max="20" width="7.625" style="10" customWidth="1"/>
     <col min="21" max="21" width="6.625" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.75" style="11" customWidth="1"/>
-    <col min="23" max="23" width="14.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.75" style="12" customWidth="1"/>
     <col min="24" max="24" width="27.875" style="13" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="25.25" style="14" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="11.375" style="3" customWidth="1"/>
@@ -2306,13 +2308,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="K1" s="5"/>
@@ -2324,13 +2326,13 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2345,13 +2347,13 @@
       <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="34">
         <v>2025</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2366,207 +2368,207 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="str">
+      <c r="A6" s="36" t="str">
         <f>"DANH SÁCH HỌC SINH TRÚNG TUYỂN NGHỀ "&amp;B4&amp;" "&amp;C4&amp;" "&amp;C4&amp;" (ĐỢT "&amp;A4&amp;")"</f>
         <v>DANH SÁCH HỌC SINH TRÚNG TUYỂN NGHỀ MAY THỜI TRANG CAO ĐẲNG CAO ĐẲNG (ĐỢT 11)</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
       <c r="Z6" s="18"/>
     </row>
     <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="str">
+      <c r="A7" s="36" t="str">
         <f>"NĂM HỌC "&amp;A3&amp;" - "&amp;A3+1</f>
         <v>NĂM HỌC 2025 - 2026</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
       <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="1:28" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="str">
+      <c r="A8" s="39" t="str">
         <f>"(Kèm theo Quyết định số ……....... /QĐ - CĐĐL ngày …........ tháng …....... năm "&amp;A3&amp;" của Trường Cao đẳng Đắk Lắk)"</f>
         <v>(Kèm theo Quyết định số ……....... /QĐ - CĐĐL ngày …........ tháng …....... năm 2025 của Trường Cao đẳng Đắk Lắk)</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
       <c r="Z8" s="18"/>
     </row>
     <row r="9" spans="1:28" s="2" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32" t="s">
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="32" t="s">
+      <c r="T9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="33" t="s">
+      <c r="V9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="W9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="X9" s="35" t="s">
+      <c r="X9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Y9" s="36" t="s">
+      <c r="Y9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="31" t="s">
+      <c r="Z9" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="2" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="31"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="49"/>
     </row>
     <row r="11" spans="1:28" s="17" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
@@ -2605,26 +2607,30 @@
       <c r="L11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="54">
         <v>7.7</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="54">
         <v>6.9</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="54">
         <f>SUM(M11:N11)</f>
         <v>14.600000000000001</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="28">
+      <c r="P11" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="53">
+        <v>0</v>
+      </c>
+      <c r="R11" s="53">
         <v>0.75</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="53">
         <f>P11+R11</f>
         <v>0.75</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="54">
         <f>O11+S11</f>
         <v>15.350000000000001</v>
       </c>
@@ -2644,8 +2650,8 @@
         <v>46</v>
       </c>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
     </row>
     <row r="12" spans="1:28" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
@@ -2684,25 +2690,29 @@
       <c r="L12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="54">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="54">
         <v>6.8</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="54">
         <f t="shared" ref="O12:O20" si="0">SUM(M12:N12)</f>
         <v>15</v>
       </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="28">
+      <c r="P12" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>0</v>
+      </c>
+      <c r="R12" s="53">
         <v>0.75</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="53">
         <v>0.75</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="54">
         <f t="shared" ref="T12:T20" si="1">O12+S12</f>
         <v>15.75</v>
       </c>
@@ -2760,25 +2770,29 @@
       <c r="L13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="54">
         <v>7.7</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="54">
         <v>7</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="54">
         <f>SUM(M13:N13)</f>
         <v>14.7</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28">
+      <c r="P13" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="53">
+        <v>0</v>
+      </c>
+      <c r="R13" s="53">
         <v>0.75</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="53">
         <v>0.75</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="54">
         <f>O13+S13</f>
         <v>15.45</v>
       </c>
@@ -2798,8 +2812,8 @@
         <v>66</v>
       </c>
       <c r="Z13" s="25"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
     </row>
     <row r="14" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
@@ -2838,14 +2852,20 @@
       <c r="L14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="53">
+        <v>0</v>
+      </c>
+      <c r="R14" s="53">
+        <v>0</v>
+      </c>
+      <c r="S14" s="53"/>
+      <c r="T14" s="54"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="24" t="s">
@@ -2856,8 +2876,8 @@
       <c r="Z14" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="30"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="28"/>
     </row>
     <row r="15" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
@@ -2896,28 +2916,30 @@
       <c r="L15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="54">
         <v>7.2</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="54">
         <v>7.9</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="54">
         <f>SUM(M15:N15)</f>
         <v>15.100000000000001</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="53">
         <v>2</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28">
+      <c r="Q15" s="53">
+        <v>0</v>
+      </c>
+      <c r="R15" s="53">
         <v>0.75</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="53">
         <f t="shared" ref="S15:S17" si="2">P15+R15</f>
         <v>2.75</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="54">
         <f>O15+S15</f>
         <v>17.850000000000001</v>
       </c>
@@ -2975,26 +2997,30 @@
       <c r="L16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="54">
         <v>8.6</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="54">
         <v>7.3</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="54">
         <f>SUM(M16:N16)</f>
         <v>15.899999999999999</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28">
+      <c r="P16" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="53">
+        <v>0</v>
+      </c>
+      <c r="R16" s="53">
         <v>0.75</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="53">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="54">
         <f>O16+S16</f>
         <v>16.649999999999999</v>
       </c>
@@ -3052,26 +3078,30 @@
       <c r="L17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="54">
         <v>7.9</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="54">
         <v>7.6</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="54">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="28">
+      <c r="P17" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="53">
+        <v>0</v>
+      </c>
+      <c r="R17" s="53">
         <v>0.75</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="53">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="54">
         <f t="shared" si="1"/>
         <v>16.25</v>
       </c>
@@ -3129,25 +3159,29 @@
       <c r="L18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="54">
         <v>6</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="54">
         <v>6.8</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="54">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28">
+      <c r="P18" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="53">
+        <v>0</v>
+      </c>
+      <c r="R18" s="53">
         <v>0.75</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="53">
         <v>0.75</v>
       </c>
-      <c r="T18" s="28">
+      <c r="T18" s="54">
         <f t="shared" si="1"/>
         <v>13.55</v>
       </c>
@@ -3205,28 +3239,30 @@
       <c r="L19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="54">
         <v>7.1</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="54">
         <v>7.7</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="54">
         <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="53">
         <v>2</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28">
+      <c r="Q19" s="53">
+        <v>0</v>
+      </c>
+      <c r="R19" s="53">
         <v>0.75</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="53">
         <f t="shared" ref="S19:S20" si="3">P19+R19</f>
         <v>2.75</v>
       </c>
-      <c r="T19" s="28">
+      <c r="T19" s="54">
         <f t="shared" si="1"/>
         <v>17.55</v>
       </c>
@@ -3284,28 +3320,30 @@
       <c r="L20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="54">
         <v>7.1</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="54">
         <v>7.2</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="54">
         <f t="shared" si="0"/>
         <v>14.3</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="53">
         <v>2</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28">
+      <c r="Q20" s="53">
+        <v>0</v>
+      </c>
+      <c r="R20" s="53">
         <v>0.75</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="53">
         <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="54">
         <f t="shared" si="1"/>
         <v>17.05</v>
       </c>
@@ -3325,12 +3363,27 @@
         <v>129</v>
       </c>
       <c r="Z20" s="25"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
     </row>
     <row r="21" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3347,21 +3400,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
